--- a/biology/Botanique/Lussac_Saint-Émilion/Lussac_Saint-Émilion.xlsx
+++ b/biology/Botanique/Lussac_Saint-Émilion/Lussac_Saint-Émilion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lussac_Saint-%C3%89milion</t>
+          <t>Lussac_Saint-Émilion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Lussac Saint-Émilion est un vin rouge français d'appellation d'origine contrôlée produit sur le territoire de la commune de Lussac. 1 486 hectares de superficie plantés en vigne ont été revendiqués en 2005 avec une production de 69 313 hectolitres.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lussac_Saint-%C3%89milion</t>
+          <t>Lussac_Saint-Émilion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,86 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le vignoble de Lussac ferme en sa partie septentrionale le vignoble de Saint-Émilion. Avec les vignobles de Montagne-Lussac Saint-Émilion, Saint-Georges-Saint-Émilion et Puisseguin-Lussac Saint-Émilion, ils forment les satellites de Saint-Émilion.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble de Lussac ferme en sa partie septentrionale le vignoble de Saint-Émilion. Avec les vignobles de Montagne-Lussac Saint-Émilion, Saint-Georges-Saint-Émilion et Puisseguin-Lussac Saint-Émilion, ils forment les satellites de Saint-Émilion.
 Le rendement de base est fixé à 45 hl/ha avec un plafond limite de 20 %.  Avant tout enrichissement ou concentration, les moûts doivent contenir au minimum 187 g/l de sucre naturel. Le vin doit présenter après fermentation un degré alcoolique minimum de 11 % vol.
-Appellation d'origine contrôlée (AOC)
-L'AOC Lussac Saint-Émilion a été créée le 14 novembre 1936[4]. Le cahier des charges a connu plusieurs évolutions homologuées le 20 octobre 2009[5], le 7 décembre 2011[6] et le 11 janvier 2024[7].
-Les cépages
-Traditionnellement, les vins de Lussac Saint-Émilion sont des vins d'assemblage de différents cépages. Les trois principaux étant le merlot, le cabernet franc (ou bouchet) et le cabernet sauvignon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lussac_Saint-Émilion</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lussac_Saint-%C3%89milion</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appellation d'origine contrôlée (AOC)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AOC Lussac Saint-Émilion a été créée le 14 novembre 1936. Le cahier des charges a connu plusieurs évolutions homologuées le 20 octobre 2009, le 7 décembre 2011 et le 11 janvier 2024.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lussac_Saint-Émilion</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lussac_Saint-%C3%89milion</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les cépages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Traditionnellement, les vins de Lussac Saint-Émilion sont des vins d'assemblage de différents cépages. Les trois principaux étant le merlot, le cabernet franc (ou bouchet) et le cabernet sauvignon.
 La répartition des cépages est la suivante :
 le merlot, c'est le cépage le plus représenté (plus de 65 % de l'encépagement). C'est un cépage précoce de deuxième époque, il apprécie le caractère frais et humide des sols à texture argileuse. Il mûrit bien et apporte au vin de la couleur, une bonne richesse alcoolique, une bonne complexité ainsi que de la souplesse et de la rondeur en bouche.
 Le cabernet franc, essentiellement planté dans le Libournais, il représente près de 25 % de l'encépagement de Saint-Émilion. De précocité moyenne, il est plus utilisé sur les sols calcaires ou à texture un peu plus chaude (sables et graves). Il apporte au vin une finesse aromatique légèrement épicée, une fraîcheur et une structure tanique, conférant au vin une grande aptitude de vieillissement.
@@ -529,48 +613,50 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Lussac_Saint-%C3%89milion</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lussac_Saint-Émilion</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lussac_Saint-%C3%89milion</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Liste de producteurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Château Robin La Fleur - Famille Noblet-Lassagne[8] ;
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Château Robin La Fleur - Famille Noblet-Lassagne ;
 Château Lyonnat ;
 Château du Courlat - Vignobles Bourotte ;
 Château Les Combes - Vignobles Borderie ;
 Château des Landes (Vignobles Lassagne) ;
 Château de Roques ;
-Château La Rose Perrière- Château La Perriere[9] ;
-Château Lion Perruchon[10] ;
-Château Mayne-Blanc[11] ;
-Vignerons de Puisseguin-Lussac Saint Emilion[12] ;
-Château Moulin de Grenet[13] ;
-Château Bellevue Poitou - Château de Rambeau[14] ;
-Château Bel-Air[15] ;
+Château La Rose Perrière- Château La Perriere ;
+Château Lion Perruchon ;
+Château Mayne-Blanc ;
+Vignerons de Puisseguin-Lussac Saint Emilion ;
+Château Moulin de Grenet ;
+Château Bellevue Poitou - Château de Rambeau ;
+Château Bel-Air ;
 Château Haut-Piquat - Famille Rivière ;
-Château Roc de Perruchon - Famille Chollet[16] ;
-Château La Fleur de Perruchon - Famille Chollet[16].</t>
+Château Roc de Perruchon - Famille Chollet ;
+Château La Fleur de Perruchon - Famille Chollet.</t>
         </is>
       </c>
     </row>
